--- a/data/trans_orig/P20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10358</v>
+        <v>10597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26052</v>
+        <v>27967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0249001549317486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01494571356443323</v>
+        <v>0.01529031280523374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03759007386813708</v>
+        <v>0.04035190514585257</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>47142</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35274</v>
+        <v>34653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62507</v>
+        <v>60997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06848481995849155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05124380158681071</v>
+        <v>0.0503417775846398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09080672826210186</v>
+        <v>0.08861278286038458</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>64399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49869</v>
+        <v>49537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80588</v>
+        <v>81140</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0466180807836151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03610014723074253</v>
+        <v>0.03585915949022947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05833699318582142</v>
+        <v>0.05873648511218872</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>675810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667016</v>
+        <v>665101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682710</v>
+        <v>682471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9750998450682514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9624099261318629</v>
+        <v>0.9596480948541476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850542864355669</v>
+        <v>0.9847096871947664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>649</v>
@@ -836,19 +836,19 @@
         <v>641209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>625844</v>
+        <v>627354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>653077</v>
+        <v>653698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9315151800415085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9091932717378983</v>
+        <v>0.9113872171396156</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9487561984131894</v>
+        <v>0.9496582224153602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1313</v>
@@ -857,19 +857,19 @@
         <v>1317020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1300831</v>
+        <v>1300279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1331550</v>
+        <v>1331882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9533819192163849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9416630068141786</v>
+        <v>0.9412635148878115</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9638998527692574</v>
+        <v>0.9641408405097706</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>37283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27065</v>
+        <v>26791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51424</v>
+        <v>50087</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03876348024036435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02813953257363781</v>
+        <v>0.02785455326588893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05346591155099802</v>
+        <v>0.05207586882441195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -982,19 +982,19 @@
         <v>75311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59659</v>
+        <v>59901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94694</v>
+        <v>95029</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07776918067325625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06160623113229403</v>
+        <v>0.06185620624860701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09778514649451465</v>
+        <v>0.09813027169586594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -1003,19 +1003,19 @@
         <v>112594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93075</v>
+        <v>92266</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136065</v>
+        <v>135356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05833294727619651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04822076615994587</v>
+        <v>0.04780145375832294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07049285722364337</v>
+        <v>0.07012567846623355</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>924517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>910376</v>
+        <v>911713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>934735</v>
+        <v>935009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9612365197596356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9465340884490017</v>
+        <v>0.9479241311755883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9718604674263621</v>
+        <v>0.9721454467341112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>838</v>
@@ -1053,19 +1053,19 @@
         <v>893082</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>873699</v>
+        <v>873364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>908734</v>
+        <v>908492</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9222308193267438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9022148535054852</v>
+        <v>0.9018697283041341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9383937688677058</v>
+        <v>0.9381437937513931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1697</v>
@@ -1074,19 +1074,19 @@
         <v>1817599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1794128</v>
+        <v>1794837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1837118</v>
+        <v>1837927</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9416670527238035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9295071427763567</v>
+        <v>0.9298743215337663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9517792338400541</v>
+        <v>0.9521985462416769</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26716</v>
+        <v>25742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51807</v>
+        <v>51571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05580451862915475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03937454264858926</v>
+        <v>0.03793895882366882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07635434268198045</v>
+        <v>0.07600650560616491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1199,19 +1199,19 @@
         <v>57638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44016</v>
+        <v>45131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73079</v>
+        <v>73521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08428589736444678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0643652063741721</v>
+        <v>0.06599561997209498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1068652675850565</v>
+        <v>0.1075124082394124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1220,19 +1220,19 @@
         <v>95502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76884</v>
+        <v>77017</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117351</v>
+        <v>116164</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07010094483699458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05643449469126343</v>
+        <v>0.05653245015266318</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08613895467505202</v>
+        <v>0.08526742775522868</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>640645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>626702</v>
+        <v>626938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651793</v>
+        <v>652767</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9441954813708452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9236456573180195</v>
+        <v>0.923993494393835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9606254573514107</v>
+        <v>0.9620610411763312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -1270,19 +1270,19 @@
         <v>626203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610762</v>
+        <v>610320</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639825</v>
+        <v>638710</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9157141026355532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8931347324149433</v>
+        <v>0.8924875917605885</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9356347936258279</v>
+        <v>0.9340043800279051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -1291,19 +1291,19 @@
         <v>1266848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1244999</v>
+        <v>1246186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1285466</v>
+        <v>1285333</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9298990551630054</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9138610453249479</v>
+        <v>0.9147325722447706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9435655053087366</v>
+        <v>0.9434675498473367</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>43022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33129</v>
+        <v>32021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58309</v>
+        <v>55497</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04566021256946223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03516075325016713</v>
+        <v>0.03398492982096175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06188419706562631</v>
+        <v>0.05889995733777575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1416,19 +1416,19 @@
         <v>69250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54858</v>
+        <v>55338</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87353</v>
+        <v>87972</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06667539011271342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05281831136866972</v>
+        <v>0.05328110865490424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08410582931313616</v>
+        <v>0.08470147129946239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1437,19 +1437,19 @@
         <v>112272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90410</v>
+        <v>92749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131721</v>
+        <v>134289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05667911397444394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04564239102281899</v>
+        <v>0.0468232128662869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06649788121766959</v>
+        <v>0.06779418879249666</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>899200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>883913</v>
+        <v>886725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>909093</v>
+        <v>910201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9543397874305377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9381158029343739</v>
+        <v>0.9411000426622242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.964839246749833</v>
+        <v>0.9660150701790383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>932</v>
@@ -1487,19 +1487,19 @@
         <v>969362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>951259</v>
+        <v>950640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>983754</v>
+        <v>983274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9333246098872866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9158941706868639</v>
+        <v>0.9152985287005376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471816886313302</v>
+        <v>0.9467188913450958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1880</v>
@@ -1508,19 +1508,19 @@
         <v>1868562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1849113</v>
+        <v>1846545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1890424</v>
+        <v>1888085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9433208860255561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9335021187823305</v>
+        <v>0.9322058112075033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.954357608977181</v>
+        <v>0.9531767871337132</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>135426</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04134393321758539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -1633,19 +1633,19 @@
         <v>249341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07378697910889559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>378</v>
@@ -1654,19 +1654,19 @@
         <v>384767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05781798447047931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3140173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3115097</v>
+        <v>3115527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3161548</v>
+        <v>3160380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9586560667824147</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9510005947665978</v>
+        <v>0.9511320696888642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9651817767626572</v>
+        <v>0.9648249486626171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3055</v>
@@ -1704,19 +1704,19 @@
         <v>3129856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3097024</v>
+        <v>3098188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3158188</v>
+        <v>3158388</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9262130208911044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9164969147224125</v>
+        <v>0.916841528544834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9345972624402481</v>
+        <v>0.9346564730543541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6132</v>
@@ -1725,19 +1725,19 @@
         <v>6270029</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6228342</v>
+        <v>6225521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6304507</v>
+        <v>6304579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9421820155295207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9359177277182572</v>
+        <v>0.9354938163321341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9473629815619754</v>
+        <v>0.9473737179892735</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>46538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34387</v>
+        <v>34168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61236</v>
+        <v>62373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06615433116082757</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04888210780180634</v>
+        <v>0.048570479934416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08704888029866677</v>
+        <v>0.08866442880770511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -2090,19 +2090,19 @@
         <v>75422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60005</v>
+        <v>60581</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92409</v>
+        <v>94397</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1082010221768092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08608459537422829</v>
+        <v>0.08691019072501327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1325709878522519</v>
+        <v>0.1354235952152995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -2111,19 +2111,19 @@
         <v>121959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101121</v>
+        <v>102314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145253</v>
+        <v>148079</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08708132065648841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07220248548461582</v>
+        <v>0.07305402393841946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1037135340067522</v>
+        <v>0.1057312214865603</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>656931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642233</v>
+        <v>641096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669082</v>
+        <v>669301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9338456688391724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9129511197013335</v>
+        <v>0.9113355711922949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9511178921981941</v>
+        <v>0.951429520065584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>580</v>
@@ -2161,19 +2161,19 @@
         <v>621628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>604641</v>
+        <v>602653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>637045</v>
+        <v>636469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8917989778231907</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8674290121477481</v>
+        <v>0.8645764047847005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9139154046257719</v>
+        <v>0.9130898092749876</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1210</v>
@@ -2182,19 +2182,19 @@
         <v>1278560</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1255266</v>
+        <v>1252440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1299398</v>
+        <v>1298205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9129186793435116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8962864659932479</v>
+        <v>0.8942687785134387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9277975145153843</v>
+        <v>0.9269459760615804</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>61577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47890</v>
+        <v>47712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79322</v>
+        <v>77598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06049137113922981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04704586308839329</v>
+        <v>0.04687103593798671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07792347810210151</v>
+        <v>0.07623010478249076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -2307,19 +2307,19 @@
         <v>96332</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79238</v>
+        <v>78420</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116155</v>
+        <v>119362</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09332858585923098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07676701612746588</v>
+        <v>0.07597522492084191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.112533502326774</v>
+        <v>0.1156406182657985</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -2328,19 +2328,19 @@
         <v>157909</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132936</v>
+        <v>133656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184406</v>
+        <v>184667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07702399544253342</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06484254446967395</v>
+        <v>0.06519400976055208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08994855291830249</v>
+        <v>0.09007586007694211</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>956370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>938625</v>
+        <v>940349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>970057</v>
+        <v>970235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9395086288607702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9220765218978985</v>
+        <v>0.9237698952175092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9529541369116067</v>
+        <v>0.9531289640620133</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>853</v>
@@ -2378,19 +2378,19 @@
         <v>935852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916029</v>
+        <v>912822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>952946</v>
+        <v>953764</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.906671414140769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8874664976732258</v>
+        <v>0.8843593817342016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9232329838725341</v>
+        <v>0.924024775079158</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1732</v>
@@ -2399,19 +2399,19 @@
         <v>1892222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1865725</v>
+        <v>1865464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1917195</v>
+        <v>1916475</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9229760045574665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9100514470816976</v>
+        <v>0.9099241399230579</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9351574555303261</v>
+        <v>0.934805990239448</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>47713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34250</v>
+        <v>35301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65035</v>
+        <v>64643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06314770248120397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04532977357432736</v>
+        <v>0.04672107507603249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08607371907555654</v>
+        <v>0.08555403354633671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2524,19 +2524,19 @@
         <v>75460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58903</v>
+        <v>58242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93730</v>
+        <v>93609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09709529778103675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07579188815822062</v>
+        <v>0.07494025535212888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1206038802007227</v>
+        <v>0.1204484756048808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -2545,19 +2545,19 @@
         <v>123173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102101</v>
+        <v>99068</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147249</v>
+        <v>146112</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08036068055653189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06661263927519463</v>
+        <v>0.064633918407529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09606828999545967</v>
+        <v>0.09532674417887797</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>707863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690541</v>
+        <v>690933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>721326</v>
+        <v>720275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9368522975187961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9139262809244434</v>
+        <v>0.9144459664536633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9546702264256726</v>
+        <v>0.9532789249239676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -2595,19 +2595,19 @@
         <v>701714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683444</v>
+        <v>683565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718271</v>
+        <v>718932</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9029047022189632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8793961197992769</v>
+        <v>0.879551524395119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.924208111841779</v>
+        <v>0.9250597446478711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1285</v>
@@ -2616,19 +2616,19 @@
         <v>1409577</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1385501</v>
+        <v>1386638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1430649</v>
+        <v>1433682</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9196393194434681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9039317100045403</v>
+        <v>0.904673255821122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9333873607248053</v>
+        <v>0.9353660815924709</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>53087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40203</v>
+        <v>39529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67814</v>
+        <v>68566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05601432709118823</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04242005745964403</v>
+        <v>0.04170850744228412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07155294121033766</v>
+        <v>0.07234640474344013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -2741,19 +2741,19 @@
         <v>91019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73922</v>
+        <v>74233</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110894</v>
+        <v>110863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0865279265955365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07027476084264812</v>
+        <v>0.07057043621735243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.105422241146839</v>
+        <v>0.1053926987017333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -2762,19 +2762,19 @@
         <v>144106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121868</v>
+        <v>122234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167197</v>
+        <v>169512</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07206585635711955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06094488166007398</v>
+        <v>0.06112789986993061</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08361362064816165</v>
+        <v>0.08477135552282979</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>894652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879925</v>
+        <v>879173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>907536</v>
+        <v>908210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9439856729088117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9284470587896625</v>
+        <v>0.9276535952565595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9575799425403561</v>
+        <v>0.9582914925577157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -2812,19 +2812,19 @@
         <v>960882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>941007</v>
+        <v>941038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>977979</v>
+        <v>977668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9134720734044635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.894577758853161</v>
+        <v>0.8946073012982667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9297252391573519</v>
+        <v>0.9294295637826478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1772</v>
@@ -2833,19 +2833,19 @@
         <v>1855534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1832443</v>
+        <v>1830128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877772</v>
+        <v>1877406</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9279341436428804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9163863793518384</v>
+        <v>0.9152286444771702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9390551183399259</v>
+        <v>0.9388721001300695</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>208914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06100169011830042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>314</v>
@@ -2958,19 +2958,19 @@
         <v>338233</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09505429372239403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -2979,19 +2979,19 @@
         <v>547147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07835368602888944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3215817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3184487</v>
+        <v>3185980</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3241250</v>
+        <v>3243371</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9389983098816996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9298502409869402</v>
+        <v>0.9302862684007126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9464246903007203</v>
+        <v>0.9470439056587525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2984</v>
@@ -3029,19 +3029,19 @@
         <v>3220076</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3178602</v>
+        <v>3185873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3251152</v>
+        <v>3256471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.904945706277606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8932899660397715</v>
+        <v>0.8953335300917235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9136790223965395</v>
+        <v>0.9151737089533047</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5999</v>
@@ -3050,19 +3050,19 @@
         <v>6435893</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6389166</v>
+        <v>6388436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6477997</v>
+        <v>6479735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9216463139711105</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9149547815625894</v>
+        <v>0.914850239891643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9276757493492532</v>
+        <v>0.9279246496227895</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>36024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25325</v>
+        <v>24578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49870</v>
+        <v>48309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05338528785715491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03752965537695292</v>
+        <v>0.03642225752874531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07390304297671448</v>
+        <v>0.07159071448703307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -3415,19 +3415,19 @@
         <v>46142</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33965</v>
+        <v>34215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61884</v>
+        <v>60959</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0685785507487774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05048045437056865</v>
+        <v>0.05085239071448531</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09197430613494686</v>
+        <v>0.09059977954073956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -3436,19 +3436,19 @@
         <v>82167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66860</v>
+        <v>64049</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101302</v>
+        <v>102006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06097086514893264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04961272702926043</v>
+        <v>0.0475270188421756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07516989227573716</v>
+        <v>0.07569225789906495</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>638776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>624930</v>
+        <v>626491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>649475</v>
+        <v>650222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9466147121428451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9260969570232852</v>
+        <v>0.928409285512967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9624703446230464</v>
+        <v>0.9635777424712548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -3486,19 +3486,19 @@
         <v>626697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>610955</v>
+        <v>611880</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>638874</v>
+        <v>638624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9314214492512226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9080256938650531</v>
+        <v>0.9094002204592606</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9495195456294312</v>
+        <v>0.9491476092855151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1240</v>
@@ -3507,19 +3507,19 @@
         <v>1265472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1246337</v>
+        <v>1245633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1280779</v>
+        <v>1283590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9390291348510673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9248301077242629</v>
+        <v>0.924307742100935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9503872729707395</v>
+        <v>0.9524729811578244</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>45679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33768</v>
+        <v>33067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60763</v>
+        <v>62205</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04467636513819801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03302720724337221</v>
+        <v>0.03234198240613162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05943012558746838</v>
+        <v>0.06084076938265921</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -3632,19 +3632,19 @@
         <v>77008</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59948</v>
+        <v>60347</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95578</v>
+        <v>95574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07383898361597638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05748133586165087</v>
+        <v>0.05786370898054009</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0916455621351734</v>
+        <v>0.09164113340994297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -3653,19 +3653,19 @@
         <v>122686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103018</v>
+        <v>101639</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147320</v>
+        <v>145858</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05940227717697646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04987938691363655</v>
+        <v>0.04921176603298916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07132972817142955</v>
+        <v>0.07062187269792239</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>976752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>961668</v>
+        <v>960226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>988663</v>
+        <v>989364</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9553236348618019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9405698744125317</v>
+        <v>0.9391592306173411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9669727927566278</v>
+        <v>0.9676580175938684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>906</v>
@@ -3703,19 +3703,19 @@
         <v>965905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>947335</v>
+        <v>947339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982965</v>
+        <v>982566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9261610163840236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9083544378648267</v>
+        <v>0.9083588665900572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9425186641383492</v>
+        <v>0.9421362910194601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1814</v>
@@ -3724,19 +3724,19 @@
         <v>1942658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1918024</v>
+        <v>1919486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1962326</v>
+        <v>1963705</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9405977228230236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9286702718285706</v>
+        <v>0.9293781273020777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9501206130863634</v>
+        <v>0.9507882339670108</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>33193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22046</v>
+        <v>22983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48734</v>
+        <v>46078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04370131970836037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02902483592682362</v>
+        <v>0.03025869599083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06416161061206369</v>
+        <v>0.06066441222203689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3849,19 +3849,19 @@
         <v>55845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42232</v>
+        <v>41873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72267</v>
+        <v>71097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07113874518761305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05379807944934818</v>
+        <v>0.05334041843824566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09205843243200559</v>
+        <v>0.09056828354086223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -3870,19 +3870,19 @@
         <v>89038</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72755</v>
+        <v>70771</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110414</v>
+        <v>108807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05764615441522288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04710363000219096</v>
+        <v>0.04581919335236894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07148576623511596</v>
+        <v>0.07044491165552162</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>726359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>710818</v>
+        <v>713474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>737506</v>
+        <v>736569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9562986802916397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9358383893879361</v>
+        <v>0.939335587777963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9709751640731762</v>
+        <v>0.9697413040091698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -3920,19 +3920,19 @@
         <v>729166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>712744</v>
+        <v>713914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742779</v>
+        <v>743138</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9288612548123869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9079415675679944</v>
+        <v>0.9094317164591378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9462019205506522</v>
+        <v>0.9466595815617543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1353</v>
@@ -3941,19 +3941,19 @@
         <v>1455525</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1434149</v>
+        <v>1435756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1471808</v>
+        <v>1473792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9423538455847771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.928514233764884</v>
+        <v>0.9295550883444784</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.952896369997809</v>
+        <v>0.9541808066476311</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>48584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36160</v>
+        <v>36830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64283</v>
+        <v>63355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05181970859941233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0385679442529274</v>
+        <v>0.03928216600208891</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06856415246632232</v>
+        <v>0.06757390726553952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -4066,19 +4066,19 @@
         <v>94344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76406</v>
+        <v>76095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116321</v>
+        <v>115503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09038735755653096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07320178145524558</v>
+        <v>0.07290293418931437</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1114426328010205</v>
+        <v>0.1106581665323929</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4087,19 +4087,19 @@
         <v>142929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119675</v>
+        <v>120490</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166802</v>
+        <v>168475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07213726157089449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06040071794174331</v>
+        <v>0.06081199738600878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08418599438117177</v>
+        <v>0.08503069640350923</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>888983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>873284</v>
+        <v>874212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>901407</v>
+        <v>900737</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9481802914005877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9314358475336777</v>
+        <v>0.9324260927344605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9614320557470726</v>
+        <v>0.9607178339979111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>873</v>
@@ -4137,19 +4137,19 @@
         <v>949435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>927458</v>
+        <v>928276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>967373</v>
+        <v>967684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9096126424434691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8885573671989792</v>
+        <v>0.8893418334676069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9267982185447543</v>
+        <v>0.9270970658106853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1756</v>
@@ -4158,19 +4158,19 @@
         <v>1838417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1814544</v>
+        <v>1812871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1861671</v>
+        <v>1860856</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9278627384291055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9158140056188281</v>
+        <v>0.9149693035964908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9395992820582567</v>
+        <v>0.9391880026139913</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>163481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04816261280850116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -4283,19 +4283,19 @@
         <v>273339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07711548702102915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>406</v>
@@ -4304,19 +4304,19 @@
         <v>436820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0629523910004411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3230869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3205672</v>
+        <v>3202957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3256637</v>
+        <v>3254059</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9518373871914988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9444142031766686</v>
+        <v>0.9436142636682793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9594286392921332</v>
+        <v>0.9586693204113685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3087</v>
@@ -4354,19 +4354,19 @@
         <v>3271203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3236839</v>
+        <v>3236070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3303045</v>
+        <v>3302178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9228845129789709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9131895260968831</v>
+        <v>0.9129726637153279</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9318680332523367</v>
+        <v>0.9316233508860492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6163</v>
@@ -4375,19 +4375,19 @@
         <v>6502072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6459742</v>
+        <v>6456972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6543365</v>
+        <v>6543455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9370476089995589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9309471746873944</v>
+        <v>0.9305479833826955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.942998524006981</v>
+        <v>0.9430114409617005</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>47921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36283</v>
+        <v>35496</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62500</v>
+        <v>62667</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06937930628874192</v>
+        <v>0.06937930628874191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05253000591159036</v>
+        <v>0.05139107955822446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09048683032602121</v>
+        <v>0.09072885560076664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -4740,19 +4740,19 @@
         <v>46899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36401</v>
+        <v>36755</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61557</v>
+        <v>60531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06397174457007129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04965309860250578</v>
+        <v>0.05013598797809622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08396713956422378</v>
+        <v>0.08256658695197772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -4761,19 +4761,19 @@
         <v>94819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77734</v>
+        <v>77903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112512</v>
+        <v>112807</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06659500269600133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05459547146862191</v>
+        <v>0.05471399774801659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07902076276090451</v>
+        <v>0.07922834933656109</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>642789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>628210</v>
+        <v>628043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654427</v>
+        <v>655214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9306206937112582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9095131696739788</v>
+        <v>0.9092711443992333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9474699940884097</v>
+        <v>0.9486089204417756</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1163</v>
@@ -4811,19 +4811,19 @@
         <v>686214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>671556</v>
+        <v>672582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696712</v>
+        <v>696358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9360282554299286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9160328604357763</v>
+        <v>0.9174334130480222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9503469013974943</v>
+        <v>0.9498640120219043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1834</v>
@@ -4832,19 +4832,19 @@
         <v>1329004</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1311311</v>
+        <v>1311016</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1346089</v>
+        <v>1345920</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9334049973039987</v>
+        <v>0.9334049973039988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9209792372390951</v>
+        <v>0.9207716506634389</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9454045285313779</v>
+        <v>0.9452860022519833</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>54618</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40659</v>
+        <v>40341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74551</v>
+        <v>72926</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05207091834735778</v>
+        <v>0.05207091834735777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03876318072748486</v>
+        <v>0.03845991788462474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07107407859652172</v>
+        <v>0.06952493993649274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -4957,19 +4957,19 @@
         <v>69711</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55977</v>
+        <v>54879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90506</v>
+        <v>88893</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06509914334482245</v>
+        <v>0.06509914334482246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05227396193723326</v>
+        <v>0.05124890749031558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08451855309077327</v>
+        <v>0.08301242638222268</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -4978,19 +4978,19 @@
         <v>124329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103361</v>
+        <v>104437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153482</v>
+        <v>150581</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05865239481922678</v>
+        <v>0.05865239481922679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04876083569613675</v>
+        <v>0.04926824723622285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0724053617509855</v>
+        <v>0.07103679398355436</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>994299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>974366</v>
+        <v>975991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1008258</v>
+        <v>1008576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9479290816526422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9289259214034783</v>
+        <v>0.9304750600635072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.961236819272515</v>
+        <v>0.9615400821153753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1424</v>
@@ -5028,19 +5028,19 @@
         <v>1001127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980332</v>
+        <v>981945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014861</v>
+        <v>1015959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9349008566551775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9154814469092267</v>
+        <v>0.9169875736177772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9477260380627669</v>
+        <v>0.9487510925096843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2335</v>
@@ -5049,19 +5049,19 @@
         <v>1995426</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1966273</v>
+        <v>1969174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2016394</v>
+        <v>2015318</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9413476051807732</v>
+        <v>0.9413476051807733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9275946382490143</v>
+        <v>0.9289632060164456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9512391643038633</v>
+        <v>0.9507317527637769</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>38042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27417</v>
+        <v>26758</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50995</v>
+        <v>52281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04737018026686661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03414063289453778</v>
+        <v>0.03331901007765244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06349942094806718</v>
+        <v>0.06510111269268855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -5174,19 +5174,19 @@
         <v>49748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37325</v>
+        <v>38083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63906</v>
+        <v>63613</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06124627900735199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04595165702677019</v>
+        <v>0.04688485908342834</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07867692281348904</v>
+        <v>0.07831649004692839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -5195,19 +5195,19 @@
         <v>87790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72493</v>
+        <v>72170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108620</v>
+        <v>107321</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0543476833218972</v>
+        <v>0.05434768332189721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04487791838719931</v>
+        <v>0.04467835418246213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06724334707131503</v>
+        <v>0.06643904090214862</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>765031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752078</v>
+        <v>750792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>775656</v>
+        <v>776315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9526298197331333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9365005790519328</v>
+        <v>0.9348988873073114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9658593671054621</v>
+        <v>0.9666809899223474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>985</v>
@@ -5245,19 +5245,19 @@
         <v>762511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748353</v>
+        <v>748646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>774934</v>
+        <v>774176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.938753720992648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9213230771865107</v>
+        <v>0.9216835099530718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9540483429732296</v>
+        <v>0.9531151409165716</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1623</v>
@@ -5266,19 +5266,19 @@
         <v>1527542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506712</v>
+        <v>1508011</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1542839</v>
+        <v>1543162</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9456523166781028</v>
+        <v>0.9456523166781029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9327566529286846</v>
+        <v>0.9335609590978513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9551220816128004</v>
+        <v>0.9553216458175379</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>64598</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51366</v>
+        <v>50588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80002</v>
+        <v>79883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06524594668588675</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05188182020072617</v>
+        <v>0.05109537856848749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0808051279112304</v>
+        <v>0.08068534688284244</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -5391,19 +5391,19 @@
         <v>79110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65493</v>
+        <v>66464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95257</v>
+        <v>95533</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07074027942165745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05856349484199282</v>
+        <v>0.05943163854970488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08517916145138235</v>
+        <v>0.08542557601665564</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -5412,19 +5412,19 @@
         <v>143708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124402</v>
+        <v>124437</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165186</v>
+        <v>165930</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06816022790461376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05900350543100688</v>
+        <v>0.05901996174682472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07834753591731149</v>
+        <v>0.07870014746773099</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>925464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910060</v>
+        <v>910179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938696</v>
+        <v>939474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9347540533141132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9191948720887696</v>
+        <v>0.9193146531171574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9481181797992738</v>
+        <v>0.9489046214315122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1447</v>
@@ -5462,19 +5462,19 @@
         <v>1039209</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1023062</v>
+        <v>1022786</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1052826</v>
+        <v>1051855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9292597205783425</v>
+        <v>0.9292597205783426</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.914820838548618</v>
+        <v>0.9145744239833442</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414365051580075</v>
+        <v>0.9405683614502952</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2375</v>
@@ -5483,19 +5483,19 @@
         <v>1964673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1943195</v>
+        <v>1942451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1983979</v>
+        <v>1983944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9318397720953863</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9216524640826884</v>
+        <v>0.9212998525322685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9409964945689931</v>
+        <v>0.9409800382531752</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>205178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05807871965949284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>344</v>
@@ -5608,19 +5608,19 @@
         <v>245467</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06572909020462114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>572</v>
@@ -5629,19 +5629,19 @@
         <v>450645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06201010610419751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3327584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3300457</v>
+        <v>3296501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3355864</v>
+        <v>3355344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9419212803405074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9342426743862479</v>
+        <v>0.933122732384407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9499264660561269</v>
+        <v>0.9497793335715041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5019</v>
@@ -5679,19 +5679,19 @@
         <v>3489062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3457162</v>
+        <v>3459783</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3514984</v>
+        <v>3516140</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9342709097953787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9257291380720881</v>
+        <v>0.9264309933852627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9412120754011215</v>
+        <v>0.9415216961883739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8167</v>
@@ -5700,19 +5700,19 @@
         <v>6816646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6776493</v>
+        <v>6773863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6857838</v>
+        <v>6853333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9379898938958026</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9324647707866469</v>
+        <v>0.932102833284547</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9436580649482329</v>
+        <v>0.9430381792767055</v>
       </c>
     </row>
     <row r="18">
